--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592EFC8-D893-4696-B412-04FE9DE80B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509C7B4-0AF6-4017-88F4-5DED3778724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
@@ -38,22 +38,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>DateTimeGroup (Local)</t>
+    <t>DateTimeGroup</t>
   </si>
   <si>
-    <t>SystolicBloodPressure(mmHG)</t>
+    <t>Systolic Blood Pressure (mmHG)</t>
   </si>
   <si>
-    <t>DiastolicBlood Pressure(mmHG)</t>
+    <t>Diastolic Blood Pressure (mmHG)</t>
   </si>
   <si>
-    <t>HeartRate(BPM)</t>
+    <t>Heart Rate (BPM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ABE07-A005-41BF-BD7A-7513E29A11A9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,16 +460,35 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3">
+        <v>45143.754166666666</v>
+      </c>
+      <c r="B2" s="2">
+        <f>(128+125)/2</f>
+        <v>126.5</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(91+88)/2</f>
+        <v>89.5</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(84+88)/2</f>
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3">
+        <v>45145.754166666666</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -634,6 +660,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509C7B4-0AF6-4017-88F4-5DED3778724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94323A7-EE61-4B67-ABD1-3F491D436E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DateTimeGroup</t>
   </si>
@@ -49,6 +49,34 @@
   <si>
     <t>Heart Rate (BPM)</t>
   </si>
+  <si>
+    <r>
+      <t>Oxygen Saturation (% SpO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +95,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,9 +481,10 @@
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +497,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45143.754166666666</v>
       </c>
@@ -475,188 +517,234 @@
         <f>(84+88)/2</f>
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45145.754166666666</v>
+        <v>45144.576388888891</v>
       </c>
       <c r="B3" s="2">
+        <f>(125+121)/2</f>
         <v>123</v>
       </c>
       <c r="C3" s="2">
-        <v>80</v>
+        <f>(87+87)/2</f>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <f>(104+94)/2</f>
+        <v>99</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45144.799305555556</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(125+125)/2</f>
+        <v>125</v>
+      </c>
+      <c r="C4" s="2">
+        <f>(88+88)/2</f>
+        <v>88</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(89+89)/2</f>
+        <v>89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94323A7-EE61-4B67-ABD1-3F491D436E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084DB58-C401-43FC-9F11-1482671282C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +477,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +489,7 @@
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,254 +502,293 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>45143.754166666666</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <f>(128+125)/2</f>
         <v>126.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <f>(91+88)/2</f>
         <v>89.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>(84+88)/2</f>
         <v>86</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45144.576388888891</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <f>(125+121)/2</f>
         <v>123</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <f>(87+87)/2</f>
         <v>87</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>(104+94)/2</f>
         <v>99</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45144.799305555556</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f>(125+125)/2</f>
         <v>125</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <f>(88+88)/2</f>
         <v>88</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f>(89+89)/2</f>
         <v>89</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2">
+        <v>45145.527777777781</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(137+134+127)/3</f>
+        <v>132.66666666666666</v>
+      </c>
+      <c r="C5" s="3">
+        <f>(100+93+89)/3</f>
+        <v>94</v>
+      </c>
+      <c r="D5" s="3">
+        <f>(100+94)/2</f>
+        <v>97</v>
+      </c>
+      <c r="E5" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2">
+        <v>45146.59375</v>
+      </c>
+      <c r="B6" s="3">
+        <f>(130+125)/2</f>
+        <v>127.5</v>
+      </c>
+      <c r="C6" s="3">
+        <f>(91+89)/2</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(91+98)/2</f>
+        <v>94.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2">
+        <v>45147.410416666666</v>
+      </c>
+      <c r="B7" s="3">
+        <f>(118+119)/2</f>
+        <v>118.5</v>
+      </c>
+      <c r="C7" s="3">
+        <f>(89+87)/2</f>
+        <v>88</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(90+83)/2</f>
+        <v>86.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084DB58-C401-43FC-9F11-1482671282C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE16AA-0F87-4B84-8E64-A80BDC1141AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,25 +623,64 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2">
+        <v>45148.472916666666</v>
+      </c>
+      <c r="B8" s="3">
+        <f>(123+126)/2</f>
+        <v>124.5</v>
+      </c>
+      <c r="C8" s="3">
+        <f>(81+85)/2</f>
+        <v>83</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(95+89)/2</f>
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2">
+        <v>45148.597222222219</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(130+124)/2</f>
+        <v>127</v>
+      </c>
+      <c r="C9" s="3">
+        <f>(90+88)/2</f>
+        <v>89</v>
+      </c>
+      <c r="D9" s="3">
+        <f>(89+86)/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="2">
+        <v>45148.780555555553</v>
+      </c>
+      <c r="B10" s="3">
+        <f>(120+129)/2</f>
+        <v>124.5</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(90+89)/2</f>
+        <v>89.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(115+107)/2</f>
+        <v>111</v>
+      </c>
+      <c r="E10" s="3">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE16AA-0F87-4B84-8E64-A80BDC1141AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A56C5F-A26C-4079-AF40-E2DD6CDAD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,25 +683,64 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="2">
+        <v>45149.539583333331</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(116+117)/2</f>
+        <v>116.5</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(88+87)/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(88+81)/2</f>
+        <v>84.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2">
+        <v>45149.865972222222</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(118+119)/2</f>
+        <v>118.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(88+87)/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(89+85)/2</f>
+        <v>87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2">
+        <v>45150.525694444441</v>
+      </c>
+      <c r="B13" s="3">
+        <f>(121+118)/2</f>
+        <v>119.5</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(78+78)/2</f>
+        <v>78</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(98+98)/2</f>
+        <v>98</v>
+      </c>
+      <c r="E13" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A56C5F-A26C-4079-AF40-E2DD6CDAD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84325B-336B-4468-8FE3-38E8EC0B8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,39 +743,104 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2">
+        <v>45151.54583333333</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(132+127)/2</f>
+        <v>129.5</v>
+      </c>
+      <c r="C14" s="3">
+        <f>(83+83)/2</f>
+        <v>83</v>
+      </c>
+      <c r="D14" s="3">
+        <f>(95+92)/2</f>
+        <v>93.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2">
+        <v>45152.693749999999</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(138+135)/2</f>
+        <v>136.5</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(92+90)/2</f>
+        <v>91</v>
+      </c>
+      <c r="D15" s="3">
+        <f>(69+64)/2</f>
+        <v>66.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="2">
+        <v>45153.564583333333</v>
+      </c>
+      <c r="B16" s="3">
+        <f>(138+121)/2</f>
+        <v>129.5</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(90+93)/2</f>
+        <v>91.5</v>
+      </c>
+      <c r="D16" s="3">
+        <f>(70+67)/2</f>
+        <v>68.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2">
+        <v>45154.569444444445</v>
+      </c>
+      <c r="B17" s="3">
+        <f>(135+128)/2</f>
+        <v>131.5</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(92+90)/2</f>
+        <v>91</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(81+80)/2</f>
+        <v>80.5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2">
+        <v>45155.490277777775</v>
+      </c>
+      <c r="B18" s="3">
+        <f>(128+129)/2</f>
+        <v>128.5</v>
+      </c>
+      <c r="C18" s="3">
+        <f>(89+90)/2</f>
+        <v>89.5</v>
+      </c>
+      <c r="D18" s="3">
+        <f>(74+74)/2</f>
+        <v>74</v>
+      </c>
+      <c r="E18" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84325B-336B-4468-8FE3-38E8EC0B8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8336C07-B9FD-47B6-A645-051F39A4D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,18 +843,44 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2">
+        <v>45156.743055555555</v>
+      </c>
+      <c r="B19" s="3">
+        <f>(134+128)/2</f>
+        <v>131</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(94+89)/2</f>
+        <v>91.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>(85+78)/2</f>
+        <v>81.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="2">
+        <v>45157.40625</v>
+      </c>
+      <c r="B20" s="3">
+        <f>(129+136)/2</f>
+        <v>132.5</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(91+93)/2</f>
+        <v>92</v>
+      </c>
+      <c r="D20" s="3">
+        <f>(97+103)/2</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8336C07-B9FD-47B6-A645-051F39A4D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B458E-2BF8-4B2A-B6E2-574F7E628BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="4800" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,81 +883,222 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2">
+        <v>45158.400694444441</v>
+      </c>
+      <c r="B21" s="3">
+        <f>(126+129)/2</f>
+        <v>127.5</v>
+      </c>
+      <c r="C21" s="3">
+        <f>AVERAGE(97,96)</f>
+        <v>96.5</v>
+      </c>
+      <c r="D21" s="3">
+        <f>AVERAGE(93,93)</f>
+        <v>93</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2">
+        <v>45159.568055555559</v>
+      </c>
+      <c r="B22" s="3">
+        <f>AVERAGE(121,141)</f>
+        <v>131</v>
+      </c>
+      <c r="C22" s="3">
+        <f>AVERAGE(92,92)</f>
+        <v>92</v>
+      </c>
+      <c r="D22" s="3">
+        <f>AVERAGE(78,79)</f>
+        <v>78.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="2">
+        <v>45160.352083333331</v>
+      </c>
+      <c r="B23" s="3">
+        <f>AVERAGE(131,129)</f>
+        <v>130</v>
+      </c>
+      <c r="C23" s="3">
+        <f>AVERAGE(95,95)</f>
+        <v>95</v>
+      </c>
+      <c r="D23" s="3">
+        <f>AVERAGE(88,90)</f>
+        <v>89</v>
+      </c>
+      <c r="E23" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2">
+        <v>45161.709027777775</v>
+      </c>
+      <c r="B24" s="3">
+        <f>AVERAGE(140,133)</f>
+        <v>136.5</v>
+      </c>
+      <c r="C24" s="3">
+        <f>AVERAGE(96,92)</f>
+        <v>94</v>
+      </c>
+      <c r="D24" s="3">
+        <f>AVERAGE(82,70)</f>
+        <v>76</v>
+      </c>
+      <c r="E24" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2">
+        <v>45162.407638888886</v>
+      </c>
+      <c r="B25" s="3">
+        <f>AVERAGE(115,118)</f>
+        <v>116.5</v>
+      </c>
+      <c r="C25" s="3">
+        <f>AVERAGE(86,88)</f>
+        <v>87</v>
+      </c>
+      <c r="D25" s="3">
+        <f>AVERAGE(97,98)</f>
+        <v>97.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="2">
+        <v>45163.675694444442</v>
+      </c>
+      <c r="B26" s="3">
+        <v>137</v>
+      </c>
+      <c r="C26" s="3">
+        <f>AVERAGE(98)</f>
+        <v>98</v>
+      </c>
+      <c r="D26" s="3">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="2">
+        <v>45164.368055555555</v>
+      </c>
+      <c r="B27" s="3">
+        <f>AVERAGE(141,122)</f>
+        <v>131.5</v>
+      </c>
+      <c r="C27" s="3">
+        <f>AVERAGE(88,89)</f>
+        <v>88.5</v>
+      </c>
+      <c r="D27" s="3">
+        <f>AVERAGE(11,99)</f>
+        <v>55</v>
+      </c>
+      <c r="E27" s="3">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B28" s="3">
+        <f>AVERAGE(127,126)</f>
+        <v>126.5</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(93,94)</f>
+        <v>93.5</v>
+      </c>
+      <c r="D28" s="3">
+        <f>AVERAGE(104,98)</f>
+        <v>101</v>
+      </c>
+      <c r="E28" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="2">
+        <v>45167.404166666667</v>
+      </c>
+      <c r="B29" s="3">
+        <f>AVERAGE(138,135)</f>
+        <v>136.5</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(94,91)</f>
+        <v>92.5</v>
+      </c>
+      <c r="D29" s="3">
+        <f>AVERAGE(79,76)</f>
+        <v>77.5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="2">
+        <v>45169.356944444444</v>
+      </c>
+      <c r="B30" s="3">
+        <f>AVERAGE(125,121)</f>
+        <v>123</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(91,91)</f>
+        <v>91</v>
+      </c>
+      <c r="D30" s="3">
+        <f>AVERAGE(99,93)</f>
+        <v>96</v>
+      </c>
+      <c r="E30" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="2">
+        <v>45171.740972222222</v>
+      </c>
+      <c r="B31" s="3">
+        <f>AVERAGE(135,134)</f>
+        <v>134.5</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(87,88)</f>
+        <v>87.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f>AVERAGE(108,101)</f>
+        <v>104.5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B458E-2BF8-4B2A-B6E2-574F7E628BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A9BA4-357F-4068-8DBE-88FAD7DA1D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -474,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1101,261 @@
         <v>97</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45176.457638888889</v>
+      </c>
+      <c r="B32" s="3">
+        <f>AVERAGE(127,125)</f>
+        <v>126</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(94,93)</f>
+        <v>93.5</v>
+      </c>
+      <c r="D32" s="3">
+        <f>AVERAGE(81,85)</f>
+        <v>83</v>
+      </c>
+      <c r="E32" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45178.606944444444</v>
+      </c>
+      <c r="B33" s="3">
+        <f>AVERAGE(121, 123)</f>
+        <v>122</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(89,87)</f>
+        <v>88</v>
+      </c>
+      <c r="D33" s="3">
+        <f>AVERAGE(82,80)</f>
+        <v>81</v>
+      </c>
+      <c r="E33" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45179.370833333334</v>
+      </c>
+      <c r="B34" s="3">
+        <f>AVERAGE(130,124)</f>
+        <v>127</v>
+      </c>
+      <c r="C34" s="3">
+        <f>AVERAGE(99,96)</f>
+        <v>97.5</v>
+      </c>
+      <c r="D34" s="3">
+        <f>AVERAGE(113,110)</f>
+        <v>111.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45181.450694444444</v>
+      </c>
+      <c r="B35" s="3">
+        <f>AVERAGE(115,117)</f>
+        <v>116</v>
+      </c>
+      <c r="C35" s="3">
+        <f>AVERAGE(89,91)</f>
+        <v>90</v>
+      </c>
+      <c r="D35" s="3">
+        <f>AVERAGE(120,121)</f>
+        <v>120.5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/BloodPressureDevice.xlsx
+++ b/BloodPressureDevice.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\VitalsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A9BA4-357F-4068-8DBE-88FAD7DA1D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32610B5-9ED3-417A-A287-2676100EABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF3A703-3A27-4153-A28D-24BD5F85AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -478,7 +477,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,32 +1181,75 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2">
+        <v>45186.45208333333</v>
+      </c>
+      <c r="B36" s="3">
+        <f>AVERAGE(124,125)</f>
+        <v>124.5</v>
+      </c>
+      <c r="C36" s="3">
+        <f>AVERAGE(95,85)</f>
+        <v>90</v>
+      </c>
+      <c r="D36" s="3">
+        <f>AVERAGE(115,113)</f>
+        <v>114</v>
+      </c>
+      <c r="E36" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2">
+        <v>45187.550694444442</v>
+      </c>
+      <c r="B37" s="3">
+        <v>128</v>
+      </c>
+      <c r="C37" s="3">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3">
+        <v>86</v>
+      </c>
+      <c r="E37" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="2">
+        <v>45188.452777777777</v>
+      </c>
+      <c r="B38" s="3">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3">
+        <v>90</v>
+      </c>
+      <c r="E38" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="2">
+        <v>45189.747916666667</v>
+      </c>
+      <c r="B39" s="3">
+        <v>142</v>
+      </c>
+      <c r="C39" s="3">
+        <v>98</v>
+      </c>
+      <c r="D39" s="3">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
